--- a/downloads/Pool-A-Groups-Bracket.xlsx
+++ b/downloads/Pool-A-Groups-Bracket.xlsx
@@ -5,10 +5,9 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Desktop\euro2024\-Predictor files to send out-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Desktop\euro2024\nunosoccerpool.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="B93B" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
@@ -11833,29 +11832,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -11870,14 +11852,31 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -16000,464 +15999,185 @@
       <sheetName val="POINTSYSTEM"/>
       <sheetName val="STATS"/>
       <sheetName val="Nuno"/>
-      <sheetName val="Aban"/>
-      <sheetName val="AdamC"/>
-      <sheetName val="Alex"/>
-      <sheetName val="Alma"/>
-      <sheetName val="Andre"/>
-      <sheetName val="AndrewS"/>
-      <sheetName val="Angelo"/>
-      <sheetName val="Antonio"/>
-      <sheetName val="Arturo"/>
+      <sheetName val="Aaron"/>
+      <sheetName val="Adam"/>
+      <sheetName val="Alexei"/>
+      <sheetName val="Alice"/>
+      <sheetName val="Angel"/>
+      <sheetName val="AnthonyD"/>
+      <sheetName val="AnthonyV"/>
+      <sheetName val="Ash"/>
       <sheetName val="Atish"/>
-      <sheetName val="Bahar"/>
+      <sheetName val="Augie"/>
       <sheetName val="Bert"/>
-      <sheetName val="Bird"/>
       <sheetName val="Brendan"/>
-      <sheetName val="Cameron"/>
-      <sheetName val="CarlosS1"/>
-      <sheetName val="CarlosS2"/>
-      <sheetName val="CarlosS3"/>
+      <sheetName val="BrianB"/>
+      <sheetName val="Carlos"/>
+      <sheetName val="Carmen"/>
       <sheetName val="Caroline"/>
       <sheetName val="ChrisK"/>
       <sheetName val="ChrisP"/>
       <sheetName val="Chrissy"/>
+      <sheetName val="CMD88"/>
       <sheetName val="Corey"/>
+      <sheetName val="Cristian"/>
       <sheetName val="Cristina"/>
-      <sheetName val="Cuevas"/>
       <sheetName val="Daisy"/>
-      <sheetName val="Damian"/>
-      <sheetName val="DanL"/>
-      <sheetName val="Danny1"/>
-      <sheetName val="Danny2"/>
+      <sheetName val="DanielR"/>
+      <sheetName val="DannyL"/>
+      <sheetName val="DannyRa"/>
+      <sheetName val="Darryll"/>
       <sheetName val="Daryl"/>
-      <sheetName val="David"/>
-      <sheetName val="Decio"/>
+      <sheetName val="Dashiel"/>
+      <sheetName val="DavidD"/>
       <sheetName val="Derek"/>
-      <sheetName val="Devils"/>
-      <sheetName val="Dom"/>
-      <sheetName val="DougM"/>
-      <sheetName val="Echeta"/>
-      <sheetName val="Eddy"/>
+      <sheetName val="Deylin"/>
+      <sheetName val="DinoD"/>
+      <sheetName val="Dragon"/>
+      <sheetName val="Duarte"/>
       <sheetName val="Edsel"/>
       <sheetName val="Eduardo"/>
+      <sheetName val="EdwardL"/>
       <sheetName val="EdwardT"/>
-      <sheetName val="Elaine"/>
       <sheetName val="Elizabeth"/>
-      <sheetName val="Eoin"/>
-      <sheetName val="Erica"/>
-      <sheetName val="EricK"/>
       <sheetName val="Fawzi"/>
       <sheetName val="Fernando"/>
       <sheetName val="Forbes"/>
       <sheetName val="Franco"/>
       <sheetName val="FrankC"/>
       <sheetName val="FrankD"/>
-      <sheetName val="FrankI"/>
       <sheetName val="Gabriela"/>
-      <sheetName val="Gannicus"/>
-      <sheetName val="Gary1"/>
-      <sheetName val="Gary2"/>
-      <sheetName val="Gio"/>
+      <sheetName val="Gary"/>
+      <sheetName val="GavinH"/>
+      <sheetName val="GavinW"/>
       <sheetName val="Greg"/>
       <sheetName val="Grosso"/>
-      <sheetName val="HelderA"/>
-      <sheetName val="HelderF"/>
-      <sheetName val="Helio"/>
+      <sheetName val="Gus"/>
+      <sheetName val="Gustavo"/>
+      <sheetName val="Heather"/>
+      <sheetName val="Helder"/>
       <sheetName val="Hernani"/>
       <sheetName val="Hugo"/>
+      <sheetName val="Ian"/>
       <sheetName val="Igor"/>
       <sheetName val="Ishaque"/>
       <sheetName val="James"/>
       <sheetName val="Janelle"/>
-      <sheetName val="JeffC"/>
-      <sheetName val="JeffB"/>
-      <sheetName val="JeffG"/>
+      <sheetName val="JeanMichel"/>
+      <sheetName val="Jeannette"/>
+      <sheetName val="JeffBe"/>
+      <sheetName val="JeffBo"/>
       <sheetName val="JeffS"/>
-      <sheetName val="JeffT"/>
+      <sheetName val="Jenn"/>
       <sheetName val="Joanna"/>
-      <sheetName val="JoeD"/>
-      <sheetName val="JohnP"/>
+      <sheetName val="Joao"/>
+      <sheetName val="JoeA"/>
+      <sheetName val="JohnC"/>
       <sheetName val="JohnR"/>
-      <sheetName val="Jorge"/>
-      <sheetName val="Joshua"/>
+      <sheetName val="Jonathan"/>
+      <sheetName val="JorgeC"/>
+      <sheetName val="JorgeT"/>
+      <sheetName val="JoseP"/>
+      <sheetName val="Julian"/>
+      <sheetName val="JustinL"/>
+      <sheetName val="Kasra"/>
       <sheetName val="KevinJ"/>
-      <sheetName val="KevinS"/>
-      <sheetName val="Krhazy"/>
       <sheetName val="Kristian"/>
-      <sheetName val="Kyle"/>
+      <sheetName val="Luigi"/>
       <sheetName val="Magno"/>
       <sheetName val="Major"/>
+      <sheetName val="MannyA"/>
+      <sheetName val="MannyT"/>
       <sheetName val="Marcio"/>
-      <sheetName val="MarcoC"/>
-      <sheetName val="MarcoI"/>
-      <sheetName val="Marcos"/>
-      <sheetName val="MariaF"/>
-      <sheetName val="MariaL"/>
+      <sheetName val="Marco"/>
+      <sheetName val="Maria"/>
       <sheetName val="Marta"/>
-      <sheetName val="Mauchline"/>
-      <sheetName val="MichaelL"/>
+      <sheetName val="MatthewG"/>
+      <sheetName val="MatthewS"/>
+      <sheetName val="Mauricio"/>
       <sheetName val="MichaelP"/>
-      <sheetName val="Michele"/>
       <sheetName val="Michiel"/>
       <sheetName val="MikeD"/>
       <sheetName val="Mitchell"/>
-      <sheetName val="Nancy"/>
-      <sheetName val="Nas"/>
-      <sheetName val="Nelson"/>
-      <sheetName val="Nicole"/>
-      <sheetName val="Noelle"/>
-      <sheetName val="Paola"/>
-      <sheetName val="Paolo"/>
-      <sheetName val="Pascal"/>
-      <sheetName val="PaulC"/>
-      <sheetName val="PeterM"/>
-      <sheetName val="PeterS"/>
-      <sheetName val="Preto1"/>
-      <sheetName val="Preto2"/>
-      <sheetName val="RichardM"/>
-      <sheetName val="Rick"/>
-      <sheetName val="Riyad"/>
-      <sheetName val="RobertS"/>
-      <sheetName val="RobT"/>
-      <sheetName val="RobW"/>
-      <sheetName val="Rodrigo"/>
-      <sheetName val="Roger"/>
-      <sheetName val="Rudy"/>
-      <sheetName val="RyanM"/>
-      <sheetName val="RyanO"/>
-      <sheetName val="Santiago"/>
-      <sheetName val="Santos"/>
-      <sheetName val="Satvir"/>
-      <sheetName val="Scotty1"/>
-      <sheetName val="Scotty2"/>
-      <sheetName val="SCP"/>
-      <sheetName val="SeanB"/>
-      <sheetName val="SeanH"/>
-      <sheetName val="Seconda"/>
-      <sheetName val="Sergio"/>
-      <sheetName val="Shawn"/>
-      <sheetName val="SimonS"/>
-      <sheetName val="Siobhan"/>
-      <sheetName val="Stallone"/>
-      <sheetName val="SteveC"/>
-      <sheetName val="StevenD"/>
-      <sheetName val="StevenG"/>
-      <sheetName val="Tanya"/>
-      <sheetName val="TeamNacho"/>
-      <sheetName val="Teresa"/>
-      <sheetName val="TomI"/>
-      <sheetName val="TonyH"/>
-      <sheetName val="TonyM"/>
-      <sheetName val="Trevor"/>
-      <sheetName val="Tundy"/>
-      <sheetName val="Tyrone"/>
-      <sheetName val="Vicki"/>
-      <sheetName val="VinayS"/>
-      <sheetName val="VinayV"/>
-      <sheetName val="Vito"/>
-      <sheetName val="Wilson"/>
-      <sheetName val="Yawning"/>
-      <sheetName val="Rachel"/>
-      <sheetName val="Alfredo"/>
-      <sheetName val="Alice"/>
-      <sheetName val="Heather"/>
-      <sheetName val="DevilsKid"/>
-      <sheetName val="Gustavo"/>
-      <sheetName val="RobV"/>
-      <sheetName val="Saman1"/>
-      <sheetName val="Scotty"/>
-      <sheetName val="Liam"/>
-      <sheetName val="PeterW"/>
-      <sheetName val="JosephC"/>
-      <sheetName val="DerekD"/>
-      <sheetName val="TonyS"/>
-      <sheetName val="CarlosS"/>
-      <sheetName val="Clinton"/>
-      <sheetName val="Aaron"/>
-      <sheetName val="Anicio"/>
-      <sheetName val="Baffour"/>
-      <sheetName val="Manley"/>
-      <sheetName val="Stanley"/>
-      <sheetName val="Chloe"/>
-      <sheetName val="Isaac"/>
-      <sheetName val="JoeP"/>
-      <sheetName val="StevenC2"/>
-      <sheetName val="StevenC1"/>
-      <sheetName val="PorkChop"/>
-      <sheetName val="NelsonM"/>
-      <sheetName val="Thomas"/>
-      <sheetName val="Mohammed"/>
-      <sheetName val="Armando"/>
-      <sheetName val="RobSc"/>
-      <sheetName val="MicheleL"/>
-      <sheetName val="AndrewL"/>
-      <sheetName val="MitchellD"/>
-      <sheetName val="GabyP"/>
-      <sheetName val="Jak"/>
-      <sheetName val="CarlosG"/>
-      <sheetName val="CarlosSal1"/>
-      <sheetName val="CarlosSal2"/>
-      <sheetName val="CarlosSal3"/>
-      <sheetName val="IsaacC"/>
-      <sheetName val="DarylS"/>
-      <sheetName val="Matthew"/>
-      <sheetName val="Saman2"/>
-      <sheetName val="DavidD"/>
-      <sheetName val="Sheldon"/>
-      <sheetName val="JordanO"/>
-      <sheetName val="Ryan"/>
-      <sheetName val="Neha"/>
-      <sheetName val="DougC"/>
-      <sheetName val="Bindu"/>
-      <sheetName val="DannyL"/>
-      <sheetName val="Edmund"/>
-      <sheetName val="RichardMo2"/>
-      <sheetName val="Gary"/>
-      <sheetName val="Sean"/>
-      <sheetName val="Tom"/>
-      <sheetName val="Jack"/>
-      <sheetName val="Marco"/>
-      <sheetName val="Maria"/>
-      <sheetName val="Kumar"/>
-      <sheetName val="MitchellM"/>
-      <sheetName val="JohnO"/>
-      <sheetName val="Everard"/>
-      <sheetName val="Joan"/>
-      <sheetName val="Vishal"/>
-      <sheetName val="Tushar"/>
-      <sheetName val="Vinay"/>
-      <sheetName val="EdwardL"/>
-      <sheetName val="GregO"/>
-      <sheetName val="Josh"/>
-      <sheetName val="RichardMa"/>
-      <sheetName val="Tyson"/>
-      <sheetName val="Ash"/>
-      <sheetName val="TFC10"/>
-      <sheetName val="YYZ10"/>
-      <sheetName val="Darryll"/>
-      <sheetName val="Wilson1"/>
-      <sheetName val="Wilson2"/>
-      <sheetName val="JoseP"/>
-      <sheetName val="IsaacK"/>
-      <sheetName val="StevenT"/>
-      <sheetName val="DannyR"/>
-      <sheetName val="RichardMo1"/>
-      <sheetName val="Daniel"/>
-      <sheetName val="Diana"/>
-      <sheetName val="Wayne"/>
-      <sheetName val="Mike"/>
-      <sheetName val="EddyM"/>
-      <sheetName val="JordanT"/>
-      <sheetName val="SimonC"/>
-      <sheetName val="Owen"/>
-      <sheetName val="RobSi"/>
-      <sheetName val="BrianF"/>
-      <sheetName val="Jeannette"/>
-      <sheetName val="Prime"/>
-      <sheetName val="Matt"/>
-      <sheetName val="Nuno (163)"/>
-      <sheetName val="Nuno (164)"/>
-      <sheetName val="Nuno (165)"/>
-      <sheetName val="Nuno (35)"/>
-      <sheetName val="Nuno (36)"/>
-      <sheetName val="Nuno (37)"/>
-      <sheetName val="Nuno (38)"/>
-      <sheetName val="Nuno (39)"/>
-      <sheetName val="Nuno (40)"/>
-      <sheetName val="Nuno (41)"/>
-      <sheetName val="Nuno (42)"/>
-      <sheetName val="Nuno (43)"/>
-      <sheetName val="Nuno (44)"/>
-      <sheetName val="Nuno (45)"/>
-      <sheetName val="Nuno (46)"/>
-      <sheetName val="Nuno (47)"/>
-      <sheetName val="Nuno (48)"/>
-      <sheetName val="Nuno (49)"/>
-      <sheetName val="Nuno (50)"/>
-      <sheetName val="Nuno (51)"/>
-      <sheetName val="Nuno (52)"/>
-      <sheetName val="Nuno (53)"/>
-      <sheetName val="Nuno (54)"/>
-      <sheetName val="Nuno (55)"/>
-      <sheetName val="Nuno (56)"/>
-      <sheetName val="Nuno (57)"/>
-      <sheetName val="Nuno (58)"/>
-      <sheetName val="Nuno (59)"/>
-      <sheetName val="Nuno (60)"/>
-      <sheetName val="Nuno (61)"/>
-      <sheetName val="Nuno (62)"/>
-      <sheetName val="Nuno (63)"/>
-      <sheetName val="Nuno (64)"/>
-      <sheetName val="Nuno (65)"/>
-      <sheetName val="Nuno (66)"/>
-      <sheetName val="Nuno (67)"/>
-      <sheetName val="Nuno (68)"/>
-      <sheetName val="Nuno (69)"/>
-      <sheetName val="Nuno (70)"/>
-      <sheetName val="Nuno (71)"/>
-      <sheetName val="Nuno (72)"/>
-      <sheetName val="Nuno (73)"/>
-      <sheetName val="Nuno (74)"/>
-      <sheetName val="Nuno (75)"/>
-      <sheetName val="Nuno (76)"/>
-      <sheetName val="Nuno (77)"/>
-      <sheetName val="Nuno (78)"/>
-      <sheetName val="Nuno (79)"/>
-      <sheetName val="Nuno (80)"/>
-      <sheetName val="Nuno (81)"/>
-      <sheetName val="Nuno (82)"/>
-      <sheetName val="Nuno (83)"/>
-      <sheetName val="Nuno (84)"/>
-      <sheetName val="Nuno (85)"/>
-      <sheetName val="Nuno (86)"/>
-      <sheetName val="Nuno (87)"/>
-      <sheetName val="Nuno (88)"/>
-      <sheetName val="Nuno (89)"/>
-      <sheetName val="Nuno (90)"/>
-      <sheetName val="Nuno (91)"/>
-      <sheetName val="Nuno (92)"/>
-      <sheetName val="Nuno (93)"/>
-      <sheetName val="Nuno (94)"/>
-      <sheetName val="Nuno (95)"/>
-      <sheetName val="Nuno (96)"/>
-      <sheetName val="Nuno (97)"/>
-      <sheetName val="Nuno (98)"/>
-      <sheetName val="Sheet164"/>
-      <sheetName val="Nuno (99)"/>
-      <sheetName val="Nuno (100)"/>
-      <sheetName val="Nuno (101)"/>
-      <sheetName val="Nuno (102)"/>
-      <sheetName val="Nuno (103)"/>
-      <sheetName val="Nuno (104)"/>
-      <sheetName val="Nuno (105)"/>
-      <sheetName val="Nuno (106)"/>
-      <sheetName val="Nuno (107)"/>
-      <sheetName val="Nuno (108)"/>
-      <sheetName val="Nuno (109)"/>
-      <sheetName val="Nuno (110)"/>
-      <sheetName val="Nuno (111)"/>
-      <sheetName val="Nuno (112)"/>
-      <sheetName val="Nuno (113)"/>
-      <sheetName val="Nuno (114)"/>
-      <sheetName val="Nuno (115)"/>
-      <sheetName val="Nuno (116)"/>
-      <sheetName val="Nuno (117)"/>
-      <sheetName val="Nuno (118)"/>
-      <sheetName val="Nuno (119)"/>
-      <sheetName val="Nuno (120)"/>
-      <sheetName val="Nuno (121)"/>
-      <sheetName val="Nuno (122)"/>
-      <sheetName val="Nuno (123)"/>
-      <sheetName val="Nuno (124)"/>
-      <sheetName val="Nuno (125)"/>
-      <sheetName val="Nuno (126)"/>
-      <sheetName val="Nuno (127)"/>
-      <sheetName val="Nuno (128)"/>
-      <sheetName val="Nuno (129)"/>
-      <sheetName val="Nuno (130)"/>
-      <sheetName val="Nuno (131)"/>
-      <sheetName val="Nuno (132)"/>
-      <sheetName val="Nuno (133)"/>
-      <sheetName val="Nuno (134)"/>
-      <sheetName val="Nuno (135)"/>
-      <sheetName val="Nuno (136)"/>
-      <sheetName val="Nuno (137)"/>
-      <sheetName val="Nuno (138)"/>
-      <sheetName val="Nuno (139)"/>
-      <sheetName val="Nuno (140)"/>
-      <sheetName val="Nuno (141)"/>
-      <sheetName val="Nuno (142)"/>
-      <sheetName val="Nuno (143)"/>
-      <sheetName val="Nuno (144)"/>
-      <sheetName val="Nuno (145)"/>
-      <sheetName val="Nuno (146)"/>
-      <sheetName val="Nuno (147)"/>
-      <sheetName val="Nuno (148)"/>
-      <sheetName val="Nuno (149)"/>
-      <sheetName val="Nuno (150)"/>
-      <sheetName val="Nuno (151)"/>
-      <sheetName val="Nuno (152)"/>
-      <sheetName val="Nuno (153)"/>
-      <sheetName val="Nuno (154)"/>
-      <sheetName val="Nuno (155)"/>
-      <sheetName val="Nuno (156)"/>
-      <sheetName val="Nuno (157)"/>
-      <sheetName val="Nuno (158)"/>
-      <sheetName val="Nuno (159)"/>
-      <sheetName val="Nuno (160)"/>
-      <sheetName val="Nuno (161)"/>
-      <sheetName val="Nuno (162)"/>
-      <sheetName val="Adam"/>
-      <sheetName val="Alexei"/>
-      <sheetName val="Angel"/>
-      <sheetName val="AnthonyD"/>
-      <sheetName val="AnthonyV"/>
-      <sheetName val="Augie"/>
-      <sheetName val="BrianB"/>
-      <sheetName val="Carlos"/>
-      <sheetName val="Carmen"/>
-      <sheetName val="CMD88"/>
-      <sheetName val="Cristian"/>
-      <sheetName val="DanielR"/>
-      <sheetName val="DannyRa"/>
-      <sheetName val="Dashiel"/>
-      <sheetName val="Deylin"/>
-      <sheetName val="DinoD"/>
-      <sheetName val="Dragon"/>
-      <sheetName val="Duarte"/>
-      <sheetName val="Edward"/>
-      <sheetName val="Gavin"/>
-      <sheetName val="Gus"/>
-      <sheetName val="Helder"/>
-      <sheetName val="Ian"/>
-      <sheetName val="Jean-Michel"/>
-      <sheetName val="JeffBe"/>
-      <sheetName val="JeffBo"/>
-      <sheetName val="Jenn"/>
-      <sheetName val="Joao"/>
-      <sheetName val="JoeA"/>
-      <sheetName val="JohnC"/>
-      <sheetName val="Jonathan"/>
-      <sheetName val="JorgeC"/>
-      <sheetName val="JorgeT"/>
-      <sheetName val="Julian"/>
-      <sheetName val="JustinL"/>
-      <sheetName val="Kasra"/>
-      <sheetName val="Luigi"/>
-      <sheetName val="MannyA"/>
-      <sheetName val="MannyT"/>
-      <sheetName val="MatthewG"/>
-      <sheetName val="MatthewS"/>
-      <sheetName val="Mauricio"/>
       <sheetName val="Mugwe"/>
       <sheetName val="NicholasN"/>
       <sheetName val="NickM"/>
+      <sheetName val="Nicole"/>
+      <sheetName val="Paola"/>
+      <sheetName val="Paolo"/>
       <sheetName val="Pardeep"/>
+      <sheetName val="Pascal"/>
       <sheetName val="Paul"/>
       <sheetName val="Pedro"/>
+      <sheetName val="PeterM"/>
+      <sheetName val="PeterS"/>
       <sheetName val="RD2024"/>
       <sheetName val="Ricardo"/>
+      <sheetName val="RichardMa"/>
       <sheetName val="RichardMo"/>
+      <sheetName val="Rick"/>
+      <sheetName val="Riyad"/>
       <sheetName val="RobertP"/>
+      <sheetName val="RobertS"/>
+      <sheetName val="RobSi"/>
       <sheetName val="RobTa"/>
       <sheetName val="RobTu"/>
+      <sheetName val="RobV"/>
+      <sheetName val="RobW"/>
+      <sheetName val="Rodrigo"/>
       <sheetName val="Sam"/>
+      <sheetName val="Santiago"/>
+      <sheetName val="Scotty"/>
+      <sheetName val="Sean"/>
+      <sheetName val="Shawn"/>
+      <sheetName val="SimonC"/>
       <sheetName val="Simone"/>
+      <sheetName val="SimonS"/>
+      <sheetName val="Stallone"/>
+      <sheetName val="Stanley"/>
       <sheetName val="SteveB"/>
+      <sheetName val="StevenD"/>
+      <sheetName val="TomI"/>
+      <sheetName val="TonyH"/>
+      <sheetName val="TonyS"/>
+      <sheetName val="Trevor"/>
       <sheetName val="Tristan"/>
+      <sheetName val="Tyrone"/>
+      <sheetName val="Vicki"/>
       <sheetName val="Victor"/>
+      <sheetName val="VinayS"/>
+      <sheetName val="VinayV"/>
       <sheetName val="Vince"/>
+      <sheetName val="Vishal"/>
+      <sheetName val="Vito"/>
+      <sheetName val="Wilson"/>
       <sheetName val="Yogi"/>
       <sheetName val="Zachary"/>
       <sheetName val="LiamM"/>
       <sheetName val="Luka"/>
+      <sheetName val="Teresa"/>
       <sheetName val="TomP"/>
-      <sheetName val="MichaelA"/>
+      <sheetName val="DanielA"/>
       <sheetName val="Rocco"/>
       <sheetName val="ChrisN"/>
-      <sheetName val="Nuno (166)"/>
-      <sheetName val="Nuno (167)"/>
+      <sheetName val="EricK"/>
+      <sheetName val="Timo"/>
+      <sheetName val="JoeD"/>
+      <sheetName val="EddyM"/>
+      <sheetName val="Kumar"/>
+      <sheetName val="KevinS"/>
+      <sheetName val="SteveR"/>
+      <sheetName val="Jerry"/>
+      <sheetName val="Neha"/>
+      <sheetName val="JohnO"/>
+      <sheetName val="Jay"/>
+      <sheetName val="Smiffy"/>
+      <sheetName val="Jubin"/>
+      <sheetName val="Monticcilo"/>
+      <sheetName val="Jenny"/>
+      <sheetName val="Kayden"/>
+      <sheetName val="Nuno (174)"/>
+      <sheetName val="Nuno (6)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -16650,299 +16370,20 @@
       <sheetData sheetId="171"/>
       <sheetData sheetId="172"/>
       <sheetData sheetId="173"/>
-      <sheetData sheetId="174" refreshError="1"/>
+      <sheetData sheetId="174"/>
       <sheetData sheetId="175"/>
-      <sheetData sheetId="176" refreshError="1"/>
-      <sheetData sheetId="177" refreshError="1"/>
-      <sheetData sheetId="178" refreshError="1"/>
-      <sheetData sheetId="179" refreshError="1"/>
+      <sheetData sheetId="176"/>
+      <sheetData sheetId="177"/>
+      <sheetData sheetId="178"/>
+      <sheetData sheetId="179"/>
       <sheetData sheetId="180"/>
-      <sheetData sheetId="181" refreshError="1"/>
-      <sheetData sheetId="182" refreshError="1"/>
+      <sheetData sheetId="181"/>
+      <sheetData sheetId="182"/>
       <sheetData sheetId="183"/>
-      <sheetData sheetId="184" refreshError="1"/>
-      <sheetData sheetId="185" refreshError="1"/>
-      <sheetData sheetId="186" refreshError="1"/>
+      <sheetData sheetId="184"/>
+      <sheetData sheetId="185"/>
+      <sheetData sheetId="186"/>
       <sheetData sheetId="187"/>
-      <sheetData sheetId="188" refreshError="1"/>
-      <sheetData sheetId="189" refreshError="1"/>
-      <sheetData sheetId="190" refreshError="1"/>
-      <sheetData sheetId="191" refreshError="1"/>
-      <sheetData sheetId="192" refreshError="1"/>
-      <sheetData sheetId="193" refreshError="1"/>
-      <sheetData sheetId="194" refreshError="1"/>
-      <sheetData sheetId="195" refreshError="1"/>
-      <sheetData sheetId="196" refreshError="1"/>
-      <sheetData sheetId="197" refreshError="1"/>
-      <sheetData sheetId="198" refreshError="1"/>
-      <sheetData sheetId="199" refreshError="1"/>
-      <sheetData sheetId="200" refreshError="1"/>
-      <sheetData sheetId="201" refreshError="1"/>
-      <sheetData sheetId="202" refreshError="1"/>
-      <sheetData sheetId="203" refreshError="1"/>
-      <sheetData sheetId="204" refreshError="1"/>
-      <sheetData sheetId="205" refreshError="1"/>
-      <sheetData sheetId="206" refreshError="1"/>
-      <sheetData sheetId="207" refreshError="1"/>
-      <sheetData sheetId="208" refreshError="1"/>
-      <sheetData sheetId="209" refreshError="1"/>
-      <sheetData sheetId="210" refreshError="1"/>
-      <sheetData sheetId="211" refreshError="1"/>
-      <sheetData sheetId="212"/>
-      <sheetData sheetId="213" refreshError="1"/>
-      <sheetData sheetId="214" refreshError="1"/>
-      <sheetData sheetId="215" refreshError="1"/>
-      <sheetData sheetId="216" refreshError="1"/>
-      <sheetData sheetId="217" refreshError="1"/>
-      <sheetData sheetId="218" refreshError="1"/>
-      <sheetData sheetId="219"/>
-      <sheetData sheetId="220" refreshError="1"/>
-      <sheetData sheetId="221" refreshError="1"/>
-      <sheetData sheetId="222"/>
-      <sheetData sheetId="223"/>
-      <sheetData sheetId="224" refreshError="1"/>
-      <sheetData sheetId="225" refreshError="1"/>
-      <sheetData sheetId="226"/>
-      <sheetData sheetId="227"/>
-      <sheetData sheetId="228" refreshError="1"/>
-      <sheetData sheetId="229" refreshError="1"/>
-      <sheetData sheetId="230" refreshError="1"/>
-      <sheetData sheetId="231" refreshError="1"/>
-      <sheetData sheetId="232" refreshError="1"/>
-      <sheetData sheetId="233"/>
-      <sheetData sheetId="234" refreshError="1"/>
-      <sheetData sheetId="235" refreshError="1"/>
-      <sheetData sheetId="236" refreshError="1"/>
-      <sheetData sheetId="237" refreshError="1"/>
-      <sheetData sheetId="238" refreshError="1"/>
-      <sheetData sheetId="239"/>
-      <sheetData sheetId="240" refreshError="1"/>
-      <sheetData sheetId="241"/>
-      <sheetData sheetId="242" refreshError="1"/>
-      <sheetData sheetId="243" refreshError="1"/>
-      <sheetData sheetId="244"/>
-      <sheetData sheetId="245" refreshError="1"/>
-      <sheetData sheetId="246" refreshError="1"/>
-      <sheetData sheetId="247"/>
-      <sheetData sheetId="248" refreshError="1"/>
-      <sheetData sheetId="249" refreshError="1"/>
-      <sheetData sheetId="250" refreshError="1"/>
-      <sheetData sheetId="251" refreshError="1"/>
-      <sheetData sheetId="252" refreshError="1"/>
-      <sheetData sheetId="253" refreshError="1"/>
-      <sheetData sheetId="254" refreshError="1"/>
-      <sheetData sheetId="255" refreshError="1"/>
-      <sheetData sheetId="256" refreshError="1"/>
-      <sheetData sheetId="257" refreshError="1"/>
-      <sheetData sheetId="258"/>
-      <sheetData sheetId="259" refreshError="1"/>
-      <sheetData sheetId="260"/>
-      <sheetData sheetId="261" refreshError="1"/>
-      <sheetData sheetId="262"/>
-      <sheetData sheetId="263" refreshError="1"/>
-      <sheetData sheetId="264" refreshError="1"/>
-      <sheetData sheetId="265"/>
-      <sheetData sheetId="266"/>
-      <sheetData sheetId="267"/>
-      <sheetData sheetId="268" refreshError="1"/>
-      <sheetData sheetId="269" refreshError="1"/>
-      <sheetData sheetId="270" refreshError="1"/>
-      <sheetData sheetId="271" refreshError="1"/>
-      <sheetData sheetId="272" refreshError="1"/>
-      <sheetData sheetId="273" refreshError="1"/>
-      <sheetData sheetId="274" refreshError="1"/>
-      <sheetData sheetId="275" refreshError="1"/>
-      <sheetData sheetId="276" refreshError="1"/>
-      <sheetData sheetId="277" refreshError="1"/>
-      <sheetData sheetId="278" refreshError="1"/>
-      <sheetData sheetId="279" refreshError="1"/>
-      <sheetData sheetId="280" refreshError="1"/>
-      <sheetData sheetId="281" refreshError="1"/>
-      <sheetData sheetId="282" refreshError="1"/>
-      <sheetData sheetId="283" refreshError="1"/>
-      <sheetData sheetId="284" refreshError="1"/>
-      <sheetData sheetId="285" refreshError="1"/>
-      <sheetData sheetId="286" refreshError="1"/>
-      <sheetData sheetId="287" refreshError="1"/>
-      <sheetData sheetId="288" refreshError="1"/>
-      <sheetData sheetId="289" refreshError="1"/>
-      <sheetData sheetId="290" refreshError="1"/>
-      <sheetData sheetId="291" refreshError="1"/>
-      <sheetData sheetId="292" refreshError="1"/>
-      <sheetData sheetId="293" refreshError="1"/>
-      <sheetData sheetId="294" refreshError="1"/>
-      <sheetData sheetId="295" refreshError="1"/>
-      <sheetData sheetId="296" refreshError="1"/>
-      <sheetData sheetId="297" refreshError="1"/>
-      <sheetData sheetId="298" refreshError="1"/>
-      <sheetData sheetId="299" refreshError="1"/>
-      <sheetData sheetId="300" refreshError="1"/>
-      <sheetData sheetId="301" refreshError="1"/>
-      <sheetData sheetId="302" refreshError="1"/>
-      <sheetData sheetId="303" refreshError="1"/>
-      <sheetData sheetId="304" refreshError="1"/>
-      <sheetData sheetId="305" refreshError="1"/>
-      <sheetData sheetId="306" refreshError="1"/>
-      <sheetData sheetId="307" refreshError="1"/>
-      <sheetData sheetId="308" refreshError="1"/>
-      <sheetData sheetId="309" refreshError="1"/>
-      <sheetData sheetId="310" refreshError="1"/>
-      <sheetData sheetId="311" refreshError="1"/>
-      <sheetData sheetId="312" refreshError="1"/>
-      <sheetData sheetId="313" refreshError="1"/>
-      <sheetData sheetId="314" refreshError="1"/>
-      <sheetData sheetId="315" refreshError="1"/>
-      <sheetData sheetId="316" refreshError="1"/>
-      <sheetData sheetId="317" refreshError="1"/>
-      <sheetData sheetId="318" refreshError="1"/>
-      <sheetData sheetId="319" refreshError="1"/>
-      <sheetData sheetId="320" refreshError="1"/>
-      <sheetData sheetId="321" refreshError="1"/>
-      <sheetData sheetId="322" refreshError="1"/>
-      <sheetData sheetId="323" refreshError="1"/>
-      <sheetData sheetId="324" refreshError="1"/>
-      <sheetData sheetId="325" refreshError="1"/>
-      <sheetData sheetId="326" refreshError="1"/>
-      <sheetData sheetId="327" refreshError="1"/>
-      <sheetData sheetId="328" refreshError="1"/>
-      <sheetData sheetId="329" refreshError="1"/>
-      <sheetData sheetId="330" refreshError="1"/>
-      <sheetData sheetId="331" refreshError="1"/>
-      <sheetData sheetId="332" refreshError="1"/>
-      <sheetData sheetId="333" refreshError="1"/>
-      <sheetData sheetId="334" refreshError="1"/>
-      <sheetData sheetId="335" refreshError="1"/>
-      <sheetData sheetId="336" refreshError="1"/>
-      <sheetData sheetId="337" refreshError="1"/>
-      <sheetData sheetId="338" refreshError="1"/>
-      <sheetData sheetId="339" refreshError="1"/>
-      <sheetData sheetId="340" refreshError="1"/>
-      <sheetData sheetId="341" refreshError="1"/>
-      <sheetData sheetId="342" refreshError="1"/>
-      <sheetData sheetId="343" refreshError="1"/>
-      <sheetData sheetId="344" refreshError="1"/>
-      <sheetData sheetId="345" refreshError="1"/>
-      <sheetData sheetId="346" refreshError="1"/>
-      <sheetData sheetId="347" refreshError="1"/>
-      <sheetData sheetId="348" refreshError="1"/>
-      <sheetData sheetId="349" refreshError="1"/>
-      <sheetData sheetId="350" refreshError="1"/>
-      <sheetData sheetId="351" refreshError="1"/>
-      <sheetData sheetId="352" refreshError="1"/>
-      <sheetData sheetId="353" refreshError="1"/>
-      <sheetData sheetId="354" refreshError="1"/>
-      <sheetData sheetId="355" refreshError="1"/>
-      <sheetData sheetId="356" refreshError="1"/>
-      <sheetData sheetId="357" refreshError="1"/>
-      <sheetData sheetId="358" refreshError="1"/>
-      <sheetData sheetId="359" refreshError="1"/>
-      <sheetData sheetId="360" refreshError="1"/>
-      <sheetData sheetId="361" refreshError="1"/>
-      <sheetData sheetId="362" refreshError="1"/>
-      <sheetData sheetId="363" refreshError="1"/>
-      <sheetData sheetId="364" refreshError="1"/>
-      <sheetData sheetId="365" refreshError="1"/>
-      <sheetData sheetId="366" refreshError="1"/>
-      <sheetData sheetId="367" refreshError="1"/>
-      <sheetData sheetId="368" refreshError="1"/>
-      <sheetData sheetId="369" refreshError="1"/>
-      <sheetData sheetId="370" refreshError="1"/>
-      <sheetData sheetId="371" refreshError="1"/>
-      <sheetData sheetId="372" refreshError="1"/>
-      <sheetData sheetId="373" refreshError="1"/>
-      <sheetData sheetId="374" refreshError="1"/>
-      <sheetData sheetId="375" refreshError="1"/>
-      <sheetData sheetId="376" refreshError="1"/>
-      <sheetData sheetId="377" refreshError="1"/>
-      <sheetData sheetId="378" refreshError="1"/>
-      <sheetData sheetId="379" refreshError="1"/>
-      <sheetData sheetId="380" refreshError="1"/>
-      <sheetData sheetId="381" refreshError="1"/>
-      <sheetData sheetId="382" refreshError="1"/>
-      <sheetData sheetId="383" refreshError="1"/>
-      <sheetData sheetId="384" refreshError="1"/>
-      <sheetData sheetId="385" refreshError="1"/>
-      <sheetData sheetId="386" refreshError="1"/>
-      <sheetData sheetId="387" refreshError="1"/>
-      <sheetData sheetId="388" refreshError="1"/>
-      <sheetData sheetId="389" refreshError="1"/>
-      <sheetData sheetId="390" refreshError="1"/>
-      <sheetData sheetId="391" refreshError="1"/>
-      <sheetData sheetId="392" refreshError="1"/>
-      <sheetData sheetId="393" refreshError="1"/>
-      <sheetData sheetId="394" refreshError="1"/>
-      <sheetData sheetId="395"/>
-      <sheetData sheetId="396"/>
-      <sheetData sheetId="397"/>
-      <sheetData sheetId="398"/>
-      <sheetData sheetId="399"/>
-      <sheetData sheetId="400"/>
-      <sheetData sheetId="401"/>
-      <sheetData sheetId="402"/>
-      <sheetData sheetId="403"/>
-      <sheetData sheetId="404"/>
-      <sheetData sheetId="405"/>
-      <sheetData sheetId="406"/>
-      <sheetData sheetId="407"/>
-      <sheetData sheetId="408"/>
-      <sheetData sheetId="409"/>
-      <sheetData sheetId="410"/>
-      <sheetData sheetId="411"/>
-      <sheetData sheetId="412"/>
-      <sheetData sheetId="413"/>
-      <sheetData sheetId="414"/>
-      <sheetData sheetId="415"/>
-      <sheetData sheetId="416"/>
-      <sheetData sheetId="417"/>
-      <sheetData sheetId="418"/>
-      <sheetData sheetId="419"/>
-      <sheetData sheetId="420"/>
-      <sheetData sheetId="421"/>
-      <sheetData sheetId="422"/>
-      <sheetData sheetId="423"/>
-      <sheetData sheetId="424"/>
-      <sheetData sheetId="425"/>
-      <sheetData sheetId="426"/>
-      <sheetData sheetId="427"/>
-      <sheetData sheetId="428"/>
-      <sheetData sheetId="429"/>
-      <sheetData sheetId="430"/>
-      <sheetData sheetId="431"/>
-      <sheetData sheetId="432"/>
-      <sheetData sheetId="433"/>
-      <sheetData sheetId="434"/>
-      <sheetData sheetId="435"/>
-      <sheetData sheetId="436"/>
-      <sheetData sheetId="437"/>
-      <sheetData sheetId="438"/>
-      <sheetData sheetId="439"/>
-      <sheetData sheetId="440"/>
-      <sheetData sheetId="441"/>
-      <sheetData sheetId="442"/>
-      <sheetData sheetId="443"/>
-      <sheetData sheetId="444"/>
-      <sheetData sheetId="445"/>
-      <sheetData sheetId="446"/>
-      <sheetData sheetId="447"/>
-      <sheetData sheetId="448"/>
-      <sheetData sheetId="449"/>
-      <sheetData sheetId="450"/>
-      <sheetData sheetId="451"/>
-      <sheetData sheetId="452"/>
-      <sheetData sheetId="453"/>
-      <sheetData sheetId="454"/>
-      <sheetData sheetId="455"/>
-      <sheetData sheetId="456"/>
-      <sheetData sheetId="457"/>
-      <sheetData sheetId="458"/>
-      <sheetData sheetId="459"/>
-      <sheetData sheetId="460"/>
-      <sheetData sheetId="461"/>
-      <sheetData sheetId="462"/>
-      <sheetData sheetId="463"/>
-      <sheetData sheetId="464"/>
-      <sheetData sheetId="465"/>
-      <sheetData sheetId="466"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -32505,7 +31946,7 @@
   <dimension ref="A1:FR97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32604,30 +32045,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="46.5">
-      <c r="A1" s="137" t="str">
+      <c r="A1" s="127" t="str">
         <f>INDEX(T,2,lang)</f>
         <v>UEFA EURO 2024 Tournament Schedule</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
       <c r="X1" s="76"/>
       <c r="Y1" s="76"/>
       <c r="Z1" s="76"/>
@@ -32890,8 +32331,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
       <c r="W6" s="76" t="s">
         <v>2540</v>
       </c>
@@ -33002,34 +32443,34 @@
       <c r="EQ6" s="79"/>
       <c r="ER6" s="79"/>
       <c r="ES6" s="79"/>
-      <c r="EV6" s="134" t="str">
+      <c r="EV6" s="129" t="str">
         <f>INDEX(T,4,lang)</f>
         <v>Round of 16</v>
       </c>
-      <c r="EW6" s="134"/>
-      <c r="EX6" s="134"/>
-      <c r="EY6" s="134"/>
-      <c r="FB6" s="134" t="str">
+      <c r="EW6" s="129"/>
+      <c r="EX6" s="129"/>
+      <c r="EY6" s="129"/>
+      <c r="FB6" s="129" t="str">
         <f>INDEX(T,5,lang)</f>
         <v>Quarterfinals</v>
       </c>
-      <c r="FC6" s="134"/>
-      <c r="FD6" s="134"/>
-      <c r="FE6" s="134"/>
-      <c r="FH6" s="134" t="str">
+      <c r="FC6" s="129"/>
+      <c r="FD6" s="129"/>
+      <c r="FE6" s="129"/>
+      <c r="FH6" s="129" t="str">
         <f>INDEX(T,6,lang)</f>
         <v>Semi-Finals</v>
       </c>
-      <c r="FI6" s="134"/>
-      <c r="FJ6" s="134"/>
-      <c r="FK6" s="134"/>
-      <c r="FN6" s="134" t="str">
+      <c r="FI6" s="129"/>
+      <c r="FJ6" s="129"/>
+      <c r="FK6" s="129"/>
+      <c r="FN6" s="129" t="str">
         <f>INDEX(T,8,lang)</f>
         <v>Final</v>
       </c>
-      <c r="FO6" s="134"/>
-      <c r="FP6" s="134"/>
-      <c r="FQ6" s="134"/>
+      <c r="FO6" s="129"/>
+      <c r="FP6" s="129"/>
+      <c r="FQ6" s="129"/>
     </row>
     <row r="7" spans="1:173" ht="12.75" customHeight="1">
       <c r="W7" s="76">
@@ -33176,38 +32617,38 @@
       <c r="EF7" s="77"/>
       <c r="EG7" s="77"/>
       <c r="EH7" s="77"/>
-      <c r="EV7" s="134"/>
-      <c r="EW7" s="134"/>
-      <c r="EX7" s="134"/>
-      <c r="EY7" s="134"/>
-      <c r="FB7" s="134"/>
-      <c r="FC7" s="134"/>
-      <c r="FD7" s="134"/>
-      <c r="FE7" s="134"/>
-      <c r="FH7" s="134"/>
-      <c r="FI7" s="134"/>
-      <c r="FJ7" s="134"/>
-      <c r="FK7" s="134"/>
-      <c r="FN7" s="134"/>
-      <c r="FO7" s="134"/>
-      <c r="FP7" s="134"/>
-      <c r="FQ7" s="134"/>
+      <c r="EV7" s="129"/>
+      <c r="EW7" s="129"/>
+      <c r="EX7" s="129"/>
+      <c r="EY7" s="129"/>
+      <c r="FB7" s="129"/>
+      <c r="FC7" s="129"/>
+      <c r="FD7" s="129"/>
+      <c r="FE7" s="129"/>
+      <c r="FH7" s="129"/>
+      <c r="FI7" s="129"/>
+      <c r="FJ7" s="129"/>
+      <c r="FK7" s="129"/>
+      <c r="FN7" s="129"/>
+      <c r="FO7" s="129"/>
+      <c r="FP7" s="129"/>
+      <c r="FQ7" s="129"/>
     </row>
     <row r="8" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A8" s="135" t="str">
+      <c r="A8" s="130" t="str">
         <f>INDEX(T,3,lang)</f>
         <v>Group Stage</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
       <c r="O8" s="30" t="str">
@@ -33692,17 +33133,17 @@
       <c r="FQ8" s="32"/>
     </row>
     <row r="9" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
       <c r="O9" s="33" t="str">
@@ -34225,12 +33666,12 @@
         <f>BD9</f>
         <v>Scotland</v>
       </c>
-      <c r="I10" s="136" t="str">
+      <c r="I10" s="131" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
       <c r="O10" s="44" t="str">
@@ -34701,7 +34142,7 @@
         <f>SUM(EP10:ES10)</f>
         <v>0</v>
       </c>
-      <c r="EV10" s="133">
+      <c r="EV10" s="132">
         <v>6</v>
       </c>
       <c r="EW10" s="47" t="str">
@@ -34755,12 +34196,12 @@
         <f>BD10</f>
         <v>Switzerland</v>
       </c>
-      <c r="I11" s="127" t="str">
+      <c r="I11" s="133" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
       <c r="O11" s="44" t="str">
@@ -35227,7 +34668,7 @@
         <f>SUM(EP11:ES11)</f>
         <v>0</v>
       </c>
-      <c r="EV11" s="133"/>
+      <c r="EV11" s="132"/>
       <c r="EW11" s="55" t="str">
         <f>VLOOKUP(EV10,$Z$46:$AC$53,4,0)</f>
         <v>3C</v>
@@ -35282,12 +34723,12 @@
         <f>BD16</f>
         <v>Croatia</v>
       </c>
-      <c r="I12" s="127" t="str">
+      <c r="I12" s="133" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J12" s="127"/>
-      <c r="K12" s="127"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
       <c r="O12" s="59" t="str">
@@ -35572,7 +35013,7 @@
       <c r="EY12" s="32"/>
       <c r="EZ12" s="62"/>
       <c r="FA12" s="32"/>
-      <c r="FB12" s="132"/>
+      <c r="FB12" s="134"/>
       <c r="FC12" s="47" t="str">
         <f>Y46</f>
         <v>W37</v>
@@ -35618,12 +35059,12 @@
         <f>BD17</f>
         <v>Albania</v>
       </c>
-      <c r="I13" s="127" t="str">
+      <c r="I13" s="133" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
       <c r="W13" s="76">
@@ -35767,7 +35208,7 @@
       <c r="EY13" s="32"/>
       <c r="EZ13" s="62"/>
       <c r="FA13" s="63"/>
-      <c r="FB13" s="132"/>
+      <c r="FB13" s="134"/>
       <c r="FC13" s="55" t="str">
         <f>Y47</f>
         <v>W39</v>
@@ -35813,12 +35254,12 @@
         <f>BD27</f>
         <v>Netherlands</v>
       </c>
-      <c r="I14" s="127" t="str">
+      <c r="I14" s="133" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
       <c r="O14" s="30" t="str">
@@ -36285,7 +35726,7 @@
         <f>SUM(EP14:ES14)</f>
         <v>0</v>
       </c>
-      <c r="EV14" s="133">
+      <c r="EV14" s="132">
         <v>5</v>
       </c>
       <c r="EW14" s="47" t="str">
@@ -36339,12 +35780,12 @@
         <f>BD21</f>
         <v>Denmark</v>
       </c>
-      <c r="I15" s="127" t="str">
+      <c r="I15" s="133" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="O15" s="33" t="str">
@@ -36811,7 +36252,7 @@
         <f>SUM(EP15:ES15)</f>
         <v>0</v>
       </c>
-      <c r="EV15" s="133"/>
+      <c r="EV15" s="132"/>
       <c r="EW15" s="55" t="str">
         <f>VLOOKUP(EV14,$Z$46:$AC$53,4,0)</f>
         <v>2E</v>
@@ -36866,12 +36307,12 @@
         <f>BD20</f>
         <v>England</v>
       </c>
-      <c r="I16" s="127" t="str">
+      <c r="I16" s="133" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="O16" s="44" t="str">
@@ -37350,7 +36791,7 @@
       <c r="FE16" s="32"/>
       <c r="FF16" s="62"/>
       <c r="FG16" s="32"/>
-      <c r="FH16" s="132"/>
+      <c r="FH16" s="134"/>
       <c r="FI16" s="47" t="str">
         <f>Y57</f>
         <v>W45</v>
@@ -37390,12 +36831,12 @@
         <f>BD33</f>
         <v>Ukraine</v>
       </c>
-      <c r="I17" s="127" t="str">
+      <c r="I17" s="133" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="O17" s="44" t="str">
@@ -37873,7 +37314,7 @@
       <c r="FE17" s="32"/>
       <c r="FF17" s="62"/>
       <c r="FG17" s="63"/>
-      <c r="FH17" s="132"/>
+      <c r="FH17" s="134"/>
       <c r="FI17" s="55" t="str">
         <f>Y58</f>
         <v>W46</v>
@@ -37913,12 +37354,12 @@
         <f>BD35</f>
         <v>Slovakia</v>
       </c>
-      <c r="I18" s="127" t="str">
+      <c r="I18" s="133" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="O18" s="59" t="str">
@@ -38197,7 +37638,7 @@
         <f>EI17</f>
         <v>0</v>
       </c>
-      <c r="EV18" s="133">
+      <c r="EV18" s="132">
         <v>2</v>
       </c>
       <c r="EW18" s="47" t="str">
@@ -38251,12 +37692,12 @@
         <f>BD26</f>
         <v>France</v>
       </c>
-      <c r="I19" s="127" t="str">
+      <c r="I19" s="133" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="W19" s="76">
@@ -38391,7 +37832,7 @@
       <c r="CA19" s="77">
         <v>4</v>
       </c>
-      <c r="EV19" s="133"/>
+      <c r="EV19" s="132"/>
       <c r="EW19" s="55" t="str">
         <f>VLOOKUP(EV18,$Z$46:$AC$53,4,0)</f>
         <v>2C</v>
@@ -38446,12 +37887,12 @@
         <f>BD41</f>
         <v>Georgia</v>
       </c>
-      <c r="I20" s="127" t="str">
+      <c r="I20" s="133" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
       <c r="O20" s="30" t="str">
@@ -38924,7 +38365,7 @@
       <c r="EY20" s="32"/>
       <c r="EZ20" s="62"/>
       <c r="FA20" s="32"/>
-      <c r="FB20" s="132"/>
+      <c r="FB20" s="134"/>
       <c r="FC20" s="47" t="str">
         <f>Y50</f>
         <v>W38</v>
@@ -38970,12 +38411,12 @@
         <f>BD40</f>
         <v>Czech Republic</v>
       </c>
-      <c r="I21" s="127" t="str">
+      <c r="I21" s="133" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29"/>
       <c r="O21" s="33" t="str">
@@ -39451,7 +38892,7 @@
       <c r="EY21" s="32"/>
       <c r="EZ21" s="62"/>
       <c r="FA21" s="63"/>
-      <c r="FB21" s="132"/>
+      <c r="FB21" s="134"/>
       <c r="FC21" s="55" t="str">
         <f>Y51</f>
         <v>W42</v>
@@ -39497,12 +38938,12 @@
         <f>BD17</f>
         <v>Albania</v>
       </c>
-      <c r="I22" s="127" t="str">
+      <c r="I22" s="133" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="O22" s="44" t="str">
@@ -39969,7 +39410,7 @@
         <f>SUM(EP22:ES22)</f>
         <v>0</v>
       </c>
-      <c r="EV22" s="133">
+      <c r="EV22" s="132">
         <v>4</v>
       </c>
       <c r="EW22" s="47" t="str">
@@ -40026,12 +39467,12 @@
         <f>BD11</f>
         <v>Hungary</v>
       </c>
-      <c r="I23" s="127" t="str">
+      <c r="I23" s="133" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
       <c r="L23" s="29"/>
       <c r="M23" s="29"/>
       <c r="O23" s="44" t="str">
@@ -40494,7 +39935,7 @@
         <f>SUM(EP23:ES23)</f>
         <v>0</v>
       </c>
-      <c r="EV23" s="133"/>
+      <c r="EV23" s="132"/>
       <c r="EW23" s="55" t="str">
         <f>VLOOKUP(EV22,$Z$46:$AC$53,4,0)</f>
         <v>3A</v>
@@ -40515,7 +39956,7 @@
       <c r="FK23" s="32"/>
       <c r="FL23" s="62"/>
       <c r="FM23" s="32"/>
-      <c r="FN23" s="132"/>
+      <c r="FN23" s="134"/>
       <c r="FO23" s="47" t="str">
         <f>Y64</f>
         <v>W49</v>
@@ -40549,12 +39990,12 @@
         <f>BD10</f>
         <v>Switzerland</v>
       </c>
-      <c r="I24" s="127" t="str">
+      <c r="I24" s="133" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="O24" s="59" t="str">
@@ -40850,7 +40291,7 @@
       <c r="FK24" s="32"/>
       <c r="FL24" s="62"/>
       <c r="FM24" s="63"/>
-      <c r="FN24" s="132"/>
+      <c r="FN24" s="134"/>
       <c r="FO24" s="55" t="str">
         <f>Y65</f>
         <v>W50</v>
@@ -40884,12 +40325,12 @@
         <f>BD22</f>
         <v>Serbia</v>
       </c>
-      <c r="I25" s="127" t="str">
+      <c r="I25" s="133" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="W25" s="76">
@@ -41076,12 +40517,12 @@
         <f>BD20</f>
         <v>England</v>
       </c>
-      <c r="I26" s="127" t="str">
+      <c r="I26" s="133" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="133"/>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="O26" s="30" t="str">
@@ -41548,7 +40989,7 @@
         <f>SUM(EP26:ES26)</f>
         <v>0</v>
       </c>
-      <c r="EV26" s="133">
+      <c r="EV26" s="132">
         <v>3</v>
       </c>
       <c r="EW26" s="47" t="str">
@@ -41602,12 +41043,12 @@
         <f>BD15</f>
         <v>Italy</v>
       </c>
-      <c r="I27" s="127" t="str">
+      <c r="I27" s="133" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="K27" s="127"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="O27" s="33" t="str">
@@ -42074,7 +41515,7 @@
         <f>SUM(EP27:ES27)</f>
         <v>0</v>
       </c>
-      <c r="EV27" s="133"/>
+      <c r="EV27" s="132"/>
       <c r="EW27" s="55" t="str">
         <f>VLOOKUP(EV26,$Z$46:$AC$53,4,0)</f>
         <v>3D</v>
@@ -42129,12 +41570,12 @@
         <f>BD33</f>
         <v>Ukraine</v>
       </c>
-      <c r="I28" s="127" t="str">
+      <c r="I28" s="133" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J28" s="127"/>
-      <c r="K28" s="127"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="133"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="O28" s="44" t="str">
@@ -42607,7 +42048,7 @@
       <c r="EY28" s="32"/>
       <c r="EZ28" s="62"/>
       <c r="FA28" s="32"/>
-      <c r="FB28" s="132"/>
+      <c r="FB28" s="134"/>
       <c r="FC28" s="47" t="str">
         <f>Y48</f>
         <v>W41</v>
@@ -42653,12 +42094,12 @@
         <f>BD28</f>
         <v>Austria</v>
       </c>
-      <c r="I29" s="127" t="str">
+      <c r="I29" s="133" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="133"/>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="O29" s="44" t="str">
@@ -43130,7 +42571,7 @@
       <c r="EY29" s="32"/>
       <c r="EZ29" s="62"/>
       <c r="FA29" s="63"/>
-      <c r="FB29" s="132"/>
+      <c r="FB29" s="134"/>
       <c r="FC29" s="55" t="str">
         <f>Y49</f>
         <v>W43</v>
@@ -43176,12 +42617,12 @@
         <f>BD26</f>
         <v>France</v>
       </c>
-      <c r="I30" s="127" t="str">
+      <c r="I30" s="133" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J30" s="127"/>
-      <c r="K30" s="127"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="O30" s="59" t="str">
@@ -43464,7 +42905,7 @@
         <f>EI29</f>
         <v>0</v>
       </c>
-      <c r="EV30" s="133">
+      <c r="EV30" s="132">
         <v>1</v>
       </c>
       <c r="EW30" s="47" t="str">
@@ -43518,12 +42959,12 @@
         <f>BD40</f>
         <v>Czech Republic</v>
       </c>
-      <c r="I31" s="127" t="str">
+      <c r="I31" s="133" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
       <c r="W31" s="76">
@@ -43658,7 +43099,7 @@
       <c r="CA31" s="77">
         <v>4</v>
       </c>
-      <c r="EV31" s="133"/>
+      <c r="EV31" s="132"/>
       <c r="EW31" s="55" t="str">
         <f>VLOOKUP(EV30,$Z$46:$AC$53,4,0)</f>
         <v>2B</v>
@@ -43709,12 +43150,12 @@
         <f>BD38</f>
         <v>Portugal</v>
       </c>
-      <c r="I32" s="127" t="str">
+      <c r="I32" s="133" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="O32" s="30" t="str">
@@ -44183,7 +43624,7 @@
       <c r="FE32" s="32"/>
       <c r="FF32" s="62"/>
       <c r="FG32" s="32"/>
-      <c r="FH32" s="132"/>
+      <c r="FH32" s="134"/>
       <c r="FI32" s="47" t="str">
         <f>Y59</f>
         <v>W47</v>
@@ -44219,12 +43660,12 @@
         <f>BD34</f>
         <v>Romania</v>
       </c>
-      <c r="I33" s="127" t="str">
+      <c r="I33" s="133" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="O33" s="33" t="str">
@@ -44696,7 +44137,7 @@
       <c r="FE33" s="32"/>
       <c r="FF33" s="62"/>
       <c r="FG33" s="63"/>
-      <c r="FH33" s="132"/>
+      <c r="FH33" s="134"/>
       <c r="FI33" s="55" t="str">
         <f>Y60</f>
         <v>W48</v>
@@ -44732,12 +44173,12 @@
         <f>BD8</f>
         <v>Germany</v>
       </c>
-      <c r="I34" s="127" t="str">
+      <c r="I34" s="133" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J34" s="127"/>
-      <c r="K34" s="127"/>
+      <c r="J34" s="133"/>
+      <c r="K34" s="133"/>
       <c r="L34" s="83"/>
       <c r="M34" s="84"/>
       <c r="O34" s="44" t="str">
@@ -45194,7 +44635,7 @@
         <f>SUM(EP34:ES34)</f>
         <v>0</v>
       </c>
-      <c r="EV34" s="133">
+      <c r="EV34" s="132">
         <v>8</v>
       </c>
       <c r="EW34" s="47" t="str">
@@ -45244,12 +44685,12 @@
         <f>BD11</f>
         <v>Hungary</v>
       </c>
-      <c r="I35" s="127" t="str">
+      <c r="I35" s="133" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
       <c r="L35" s="85"/>
       <c r="M35" s="86"/>
       <c r="O35" s="44" t="str">
@@ -45702,7 +45143,7 @@
         <f>SUM(EP35:ES35)</f>
         <v>0</v>
       </c>
-      <c r="EV35" s="133"/>
+      <c r="EV35" s="132"/>
       <c r="EW35" s="55" t="str">
         <f>VLOOKUP(EV34,$Z$46:$AC$53,4,0)</f>
         <v>3B</v>
@@ -45753,12 +45194,12 @@
         <f>BD14</f>
         <v>Spain</v>
       </c>
-      <c r="I36" s="127" t="str">
+      <c r="I36" s="133" t="str">
         <f>INDEX(T,111,lang)</f>
         <v>Düsseldorf</v>
       </c>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
       <c r="L36" s="85"/>
       <c r="M36" s="86"/>
       <c r="O36" s="59" t="str">
@@ -46033,7 +45474,7 @@
       <c r="EY36" s="32"/>
       <c r="EZ36" s="62"/>
       <c r="FA36" s="32"/>
-      <c r="FB36" s="132"/>
+      <c r="FB36" s="134"/>
       <c r="FC36" s="47" t="str">
         <f>Y52</f>
         <v>W40</v>
@@ -46075,12 +45516,12 @@
         <f>BD15</f>
         <v>Italy</v>
       </c>
-      <c r="I37" s="127" t="str">
+      <c r="I37" s="133" t="str">
         <f>INDEX(T,112,lang)</f>
         <v>Leipzig</v>
       </c>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
       <c r="L37" s="85"/>
       <c r="M37" s="86"/>
       <c r="W37" s="76">
@@ -46214,7 +45655,7 @@
       <c r="EY37" s="32"/>
       <c r="EZ37" s="62"/>
       <c r="FA37" s="63"/>
-      <c r="FB37" s="132"/>
+      <c r="FB37" s="134"/>
       <c r="FC37" s="55" t="str">
         <f>Y53</f>
         <v>W44</v>
@@ -46260,12 +45701,12 @@
         <f>BD28</f>
         <v>Austria</v>
       </c>
-      <c r="I38" s="127" t="str">
+      <c r="I38" s="133" t="str">
         <f>INDEX(T,107,lang)</f>
         <v>Berlin</v>
       </c>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
       <c r="L38" s="85"/>
       <c r="M38" s="86"/>
       <c r="O38" s="30" t="str">
@@ -46722,7 +46163,7 @@
         <f>SUM(EP38:ES38)</f>
         <v>0</v>
       </c>
-      <c r="EV38" s="133">
+      <c r="EV38" s="132">
         <v>7</v>
       </c>
       <c r="EW38" s="47" t="str">
@@ -46772,12 +46213,12 @@
         <f>BD29</f>
         <v>Poland</v>
       </c>
-      <c r="I39" s="127" t="str">
+      <c r="I39" s="133" t="str">
         <f>INDEX(T,108,lang)</f>
         <v>Dortmund</v>
       </c>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
       <c r="L39" s="85"/>
       <c r="M39" s="86"/>
       <c r="O39" s="33" t="str">
@@ -47234,7 +46675,7 @@
         <f>SUM(EP39:ES39)</f>
         <v>0</v>
       </c>
-      <c r="EV39" s="133"/>
+      <c r="EV39" s="132"/>
       <c r="EW39" s="55" t="str">
         <f>VLOOKUP(EV38,$Z$46:$AC$53,4,0)</f>
         <v>2F</v>
@@ -47280,12 +46721,12 @@
         <f>BD23</f>
         <v>Slovenia</v>
       </c>
-      <c r="I40" s="127" t="str">
+      <c r="I40" s="133" t="str">
         <f>INDEX(T,104,lang)</f>
         <v>Cologne</v>
       </c>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
       <c r="L40" s="85"/>
       <c r="M40" s="86"/>
       <c r="O40" s="44" t="str">
@@ -47770,12 +47211,12 @@
         <f>BD22</f>
         <v>Serbia</v>
       </c>
-      <c r="I41" s="127" t="str">
+      <c r="I41" s="133" t="str">
         <f>INDEX(T,103,lang)</f>
         <v>Munich</v>
       </c>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
       <c r="L41" s="85"/>
       <c r="M41" s="86"/>
       <c r="O41" s="44" t="str">
@@ -48228,23 +47669,23 @@
         <f>SUM(EP41:ES41)</f>
         <v>0</v>
       </c>
-      <c r="FG41" s="130" t="str">
+      <c r="FG41" s="135" t="str">
         <f>INDEX(T,102,lang)</f>
         <v>Champion 2024</v>
       </c>
-      <c r="FH41" s="130"/>
-      <c r="FI41" s="130"/>
-      <c r="FJ41" s="130"/>
-      <c r="FK41" s="130"/>
-      <c r="FL41" s="131" t="str">
+      <c r="FH41" s="135"/>
+      <c r="FI41" s="135"/>
+      <c r="FJ41" s="135"/>
+      <c r="FK41" s="135"/>
+      <c r="FL41" s="136" t="str">
         <f>X73</f>
         <v/>
       </c>
-      <c r="FM41" s="131"/>
-      <c r="FN41" s="131"/>
-      <c r="FO41" s="131"/>
-      <c r="FP41" s="131"/>
-      <c r="FQ41" s="131"/>
+      <c r="FM41" s="136"/>
+      <c r="FN41" s="136"/>
+      <c r="FO41" s="136"/>
+      <c r="FP41" s="136"/>
+      <c r="FQ41" s="136"/>
     </row>
     <row r="42" spans="1:173">
       <c r="A42" s="49">
@@ -48272,12 +47713,12 @@
         <f>BD34</f>
         <v>Romania</v>
       </c>
-      <c r="I42" s="127" t="str">
+      <c r="I42" s="133" t="str">
         <f>INDEX(T,106,lang)</f>
         <v>Frankfurt</v>
       </c>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
       <c r="L42" s="85"/>
       <c r="M42" s="86"/>
       <c r="O42" s="59" t="str">
@@ -48546,17 +47987,17 @@
         <f>EI41</f>
         <v>0</v>
       </c>
-      <c r="FG42" s="130"/>
-      <c r="FH42" s="130"/>
-      <c r="FI42" s="130"/>
-      <c r="FJ42" s="130"/>
-      <c r="FK42" s="130"/>
-      <c r="FL42" s="131"/>
-      <c r="FM42" s="131"/>
-      <c r="FN42" s="131"/>
-      <c r="FO42" s="131"/>
-      <c r="FP42" s="131"/>
-      <c r="FQ42" s="131"/>
+      <c r="FG42" s="135"/>
+      <c r="FH42" s="135"/>
+      <c r="FI42" s="135"/>
+      <c r="FJ42" s="135"/>
+      <c r="FK42" s="135"/>
+      <c r="FL42" s="136"/>
+      <c r="FM42" s="136"/>
+      <c r="FN42" s="136"/>
+      <c r="FO42" s="136"/>
+      <c r="FP42" s="136"/>
+      <c r="FQ42" s="136"/>
     </row>
     <row r="43" spans="1:173">
       <c r="A43" s="49">
@@ -48584,12 +48025,12 @@
         <f>BD32</f>
         <v>Belgium</v>
       </c>
-      <c r="I43" s="127" t="str">
+      <c r="I43" s="133" t="str">
         <f>INDEX(T,105,lang)</f>
         <v>Stuttgart</v>
       </c>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
       <c r="L43" s="85"/>
       <c r="M43" s="86"/>
       <c r="BJ43" s="76">
@@ -48627,12 +48068,12 @@
         <f>BD38</f>
         <v>Portugal</v>
       </c>
-      <c r="I44" s="127" t="str">
+      <c r="I44" s="133" t="str">
         <f>INDEX(T,110,lang)</f>
         <v>Gelsenkirchen</v>
       </c>
-      <c r="J44" s="127"/>
-      <c r="K44" s="127"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
       <c r="L44" s="85"/>
       <c r="M44" s="86"/>
       <c r="O44" s="30" t="str">
@@ -48750,12 +48191,12 @@
         <f>BD39</f>
         <v>Turkey</v>
       </c>
-      <c r="I45" s="128" t="str">
+      <c r="I45" s="137" t="str">
         <f>INDEX(T,109,lang)</f>
         <v>Hamburg</v>
       </c>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
       <c r="L45" s="87"/>
       <c r="M45" s="88"/>
       <c r="O45" s="73" t="str">
@@ -49443,13 +48884,13 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="129"/>
-      <c r="T52" s="129"/>
-      <c r="U52" s="129"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="138"/>
+      <c r="R52" s="138"/>
+      <c r="S52" s="138"/>
+      <c r="T52" s="138"/>
+      <c r="U52" s="138"/>
       <c r="W52" s="76">
         <f>DATE(2024,7,2)+TIME(8,0,0)+gmt_delta</f>
         <v>45475.666666666672</v>
@@ -49491,13 +48932,13 @@
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
-      <c r="U53" s="129"/>
+      <c r="O53" s="138"/>
+      <c r="P53" s="138"/>
+      <c r="Q53" s="138"/>
+      <c r="R53" s="138"/>
+      <c r="S53" s="138"/>
+      <c r="T53" s="138"/>
+      <c r="U53" s="138"/>
       <c r="W53" s="76">
         <f>DATE(2024,7,2)+TIME(5,0,0)+gmt_delta</f>
         <v>45475.541666666672</v>
@@ -50163,52 +49604,12 @@
   </sheetData>
   <sheetProtection password="B93B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="EV6:EY7"/>
-    <mergeCell ref="FB6:FE7"/>
-    <mergeCell ref="FH6:FK7"/>
-    <mergeCell ref="FN6:FQ7"/>
-    <mergeCell ref="A8:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="EV10:EV11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="FB12:FB13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="EV14:EV15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="FH16:FH17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="EV18:EV19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="FB20:FB21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="EV22:EV23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="FN23:FN24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="EV26:EV27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="FB28:FB29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="EV30:EV31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="FH32:FH33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="EV34:EV35"/>
-    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="O52:U53"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
     <mergeCell ref="FG41:FK42"/>
     <mergeCell ref="FL41:FQ42"/>
     <mergeCell ref="I42:K42"/>
@@ -50218,12 +49619,52 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="EV38:EV39"/>
     <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="O52:U53"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="FH32:FH33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="EV34:EV35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="FB28:FB29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="EV30:EV31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="FN23:FN24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="EV26:EV27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="FB20:FB21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="EV22:EV23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="FH16:FH17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="EV18:EV19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="FB12:FB13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="EV14:EV15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="FN6:FQ7"/>
+    <mergeCell ref="A8:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="EV10:EV11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="EV6:EY7"/>
+    <mergeCell ref="FB6:FE7"/>
+    <mergeCell ref="FH6:FK7"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E45">
     <cfRule type="expression" dxfId="128" priority="4">
